--- a/branches/ezauto/bin/Debug/sale statement.xlsx
+++ b/branches/ezauto/bin/Debug/sale statement.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="150" windowWidth="11475" windowHeight="2895"/>
   </bookViews>
   <sheets>
-    <sheet name="Stock" sheetId="1" r:id="rId1"/>
+    <sheet name="Sale" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -25,12 +25,6 @@
     <t>តំលៃសរុប</t>
   </si>
   <si>
-    <t xml:space="preserve">បញ្ជីស្តុកគ្រឿងបន្លាស់ </t>
-  </si>
-  <si>
-    <t>វិក្កយបត្រ</t>
-  </si>
-  <si>
     <t>លេខកូដ</t>
   </si>
   <si>
@@ -41,6 +35,12 @@
   </si>
   <si>
     <t>បរិមាណ</t>
+  </si>
+  <si>
+    <t>ចំណេញ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">សំរាប់រយៈពេល </t>
   </si>
 </sst>
 </file>
@@ -98,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -137,15 +137,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="double">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -153,18 +156,22 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
       <top style="double">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -172,13 +179,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -187,10 +191,10 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,14 +209,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,96 +525,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="45" style="12" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="6" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+    <row r="2" spans="1:8" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" ht="27.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+    <row r="5" spans="1:8" ht="27.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/branches/ezauto/bin/Debug/sale statement.xlsx
+++ b/branches/ezauto/bin/Debug/sale statement.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="E5" sqref="E5:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,8 @@
     <col min="1" max="1" width="6.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="45" style="12" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="10" customWidth="1"/>
     <col min="6" max="7" width="14.28515625" style="10" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
@@ -604,7 +605,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="13"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
@@ -613,7 +614,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
